--- a/data/trans_bre/IP11-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP11-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>-15,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-44,12%</t>
+          <t>29,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-12,52%</t>
+          <t>-51,75%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 0,35</t>
+          <t>-12,31; 22,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 6,19</t>
+          <t>-33,95; -4,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 2,64</t>
+          <t>-20,96; 9,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,84</t>
+          <t>0,0; 13,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-75,34; 10,32</t>
+          <t>-74,41; 599,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 98,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-58,51; 75,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-70,99; 322,47</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-16,01%</t>
+          <t>-44,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-35,56%</t>
+          <t>19,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-74,9%</t>
+          <t>-12,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-63,82%</t>
+          <t>9,37%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 2,58</t>
+          <t>-6,35; 0,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 1,04</t>
+          <t>-3,08; 6,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,36; -1,09</t>
+          <t>-3,8; 2,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 0,24</t>
+          <t>-2,22; 2,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,04; 75,61</t>
+          <t>-75,34; 10,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,82; 19,41</t>
+          <t>-29,06; 98,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-93,77; -15,28</t>
+          <t>-58,51; 75,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-92,67; 31,24</t>
+          <t>-70,99; 322,47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-15,2</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,23</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>-22,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-49,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-51,75%</t>
+          <t>-39,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-11,51%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 22,04</t>
+          <t>-5,52; 2,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,95; -4,0</t>
+          <t>-10,15; -0,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,96; 9,46</t>
+          <t>-5,42; 1,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,91</t>
+          <t>-4,3; 3,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,41; 599,67</t>
+          <t>-68,87; 71,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,65; -5,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,78; 51,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,93; 141,81</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,45</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-22,69%</t>
+          <t>-16,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-49,82%</t>
+          <t>-35,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-39,56%</t>
+          <t>-74,9%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-11,51%</t>
+          <t>-63,82%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 2,86</t>
+          <t>-4,32; 2,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,15; -0,81</t>
+          <t>-7,6; 1,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 1,12</t>
+          <t>-7,36; -1,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 3,2</t>
+          <t>-5,74; 0,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-68,87; 71,76</t>
+          <t>-62,04; 75,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-74,65; -5,25</t>
+          <t>-65,82; 19,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-77,78; 51,01</t>
+          <t>-93,77; -15,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-65,93; 141,81</t>
+          <t>-92,67; 31,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP11-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP11-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 22,04</t>
+          <t>-11,14; 20,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,95; -4,0</t>
+          <t>-33,77; -4,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,96; 9,46</t>
+          <t>-18,21; 9,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-74,41; 599,67</t>
+          <t>-74,18; 479,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 5,8</t>
+          <t>-5,5; 5,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 3,13</t>
+          <t>-7,62; 4,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 4,05</t>
+          <t>-5,39; 4,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 4,99</t>
+          <t>-1,89; 4,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,42; 119,57</t>
+          <t>-53,62; 104,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-61,13; 52,99</t>
+          <t>-60,87; 68,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-67,13; 123,32</t>
+          <t>-65,15; 141,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-73,78; 947,86</t>
+          <t>-72,86; 565,37</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 0,35</t>
+          <t>-6,3; 0,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 6,19</t>
+          <t>-2,71; 6,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 2,64</t>
+          <t>-3,69; 2,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,84</t>
+          <t>-2,31; 2,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-75,34; 10,32</t>
+          <t>-74,22; 9,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 98,98</t>
+          <t>-25,54; 97,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-58,51; 75,9</t>
+          <t>-56,29; 83,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-70,99; 322,47</t>
+          <t>-73,03; 279,18</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 2,86</t>
+          <t>-5,48; 2,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,15; -0,81</t>
+          <t>-10,03; -0,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 1,12</t>
+          <t>-5,2; 1,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 3,2</t>
+          <t>-4,29; 3,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,87; 71,76</t>
+          <t>-65,99; 71,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,65; -5,25</t>
+          <t>-73,31; -3,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-77,78; 51,01</t>
+          <t>-76,95; 48,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,93; 141,81</t>
+          <t>-68,03; 157,76</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 2,58</t>
+          <t>-4,51; 2,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 1,04</t>
+          <t>-7,46; 1,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,36; -1,09</t>
+          <t>-7,64; -1,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 0,24</t>
+          <t>-6,0; -0,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-62,04; 75,61</t>
+          <t>-61,95; 92,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-65,82; 19,41</t>
+          <t>-64,64; 25,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-93,77; -15,28</t>
+          <t>-92,99; -17,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-92,67; 31,24</t>
+          <t>-93,95; 15,66</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 0,81</t>
+          <t>-3,13; 0,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,91; -0,17</t>
+          <t>-4,88; -0,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,94; -0,26</t>
+          <t>-3,95; -0,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,1</t>
+          <t>-2,07; 1,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,98; 16,24</t>
+          <t>-43,09; 12,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,13; -1,12</t>
+          <t>-42,8; -1,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-60,09; -5,16</t>
+          <t>-61,34; -9,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,6; 51,84</t>
+          <t>-51,95; 47,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP11-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP11-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 20,26</t>
+          <t>-11,4; 21,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,77; -4,04</t>
+          <t>-31,59; -3,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 9,64</t>
+          <t>-18,89; 10,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,91</t>
+          <t>0,0; 12,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-74,18; 479,25</t>
+          <t>-72,82; 624,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 5,67</t>
+          <t>-5,5; 5,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 4,08</t>
+          <t>-7,99; 4,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 4,35</t>
+          <t>-6,23; 3,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 4,57</t>
+          <t>-2,0; 5,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,62; 104,64</t>
+          <t>-51,76; 112,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,87; 68,77</t>
+          <t>-62,88; 69,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-65,15; 141,15</t>
+          <t>-67,83; 134,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-72,86; 565,37</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 0,22</t>
+          <t>-6,51; 0,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 6,42</t>
+          <t>-3,3; 6,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 2,49</t>
+          <t>-3,74; 2,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,89</t>
+          <t>-2,2; 3,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-74,22; 9,11</t>
+          <t>-74,47; 14,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 97,73</t>
+          <t>-28,99; 104,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-56,29; 83,78</t>
+          <t>-58,45; 81,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-73,03; 279,18</t>
+          <t>-69,07; 352,42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 2,67</t>
+          <t>-5,67; 2,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,03; -0,47</t>
+          <t>-10,31; -0,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 1,12</t>
+          <t>-5,12; 1,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 3,12</t>
+          <t>-4,13; 3,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-65,99; 71,54</t>
+          <t>-70,16; 83,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-73,31; -3,08</t>
+          <t>-74,53; -5,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-76,95; 48,69</t>
+          <t>-76,92; 49,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-68,03; 157,76</t>
+          <t>-68,56; 147,35</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 2,77</t>
+          <t>-4,26; 2,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 1,33</t>
+          <t>-7,73; 0,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,64; -1,44</t>
+          <t>-7,42; -1,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,0; -0,01</t>
+          <t>-6,08; -0,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-61,95; 92,61</t>
+          <t>-61,96; 79,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-64,64; 25,3</t>
+          <t>-64,87; 15,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-92,99; -17,97</t>
+          <t>-93,45; -17,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-93,95; 15,66</t>
+          <t>-93,24; 17,47</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,63</t>
+          <t>-3,16; 0,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,88; -0,16</t>
+          <t>-4,99; -0,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,95; -0,45</t>
+          <t>-3,8; -0,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 1,09</t>
+          <t>-2,07; 1,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,09; 12,54</t>
+          <t>-41,45; 17,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,8; -1,64</t>
+          <t>-45,24; -0,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-61,34; -9,06</t>
+          <t>-59,06; -6,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-51,95; 47,28</t>
+          <t>-51,83; 45,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP11-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP11-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-15,2</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,23</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-38,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-51,75%</t>
+          <t>-22,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>81,39%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 21,28</t>
+          <t>-4,75; 6,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,59; -3,92</t>
+          <t>-9,92; 1,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 10,26</t>
+          <t>-6,36; 3,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,73</t>
+          <t>-1,66; 4,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-72,82; 624,44</t>
+          <t>-43,22; 116,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,01; 19,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,09; 90,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,79; 691,28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>-44,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,83%</t>
+          <t>19,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-12,63%</t>
+          <t>-12,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>55,29%</t>
+          <t>2,42%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 5,88</t>
+          <t>-6,35; 0,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 4,19</t>
+          <t>-3,08; 6,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 3,88</t>
+          <t>-3,8; 2,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 5,07</t>
+          <t>-2,52; 2,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,76; 112,17</t>
+          <t>-75,34; 10,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,88; 69,56</t>
+          <t>-29,06; 98,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-67,83; 134,48</t>
+          <t>-58,51; 75,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,41; 299,18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-44,12%</t>
+          <t>-22,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>-49,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-12,52%</t>
+          <t>-39,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>-22,99%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 0,37</t>
+          <t>-5,52; 2,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 6,38</t>
+          <t>-10,15; -0,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 2,85</t>
+          <t>-5,42; 1,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 3,19</t>
+          <t>-4,94; 2,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-74,47; 14,29</t>
+          <t>-68,87; 71,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,99; 104,04</t>
+          <t>-74,65; -5,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-58,45; 81,48</t>
+          <t>-77,78; 51,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-69,07; 352,42</t>
+          <t>-72,88; 115,27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,45</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-22,69%</t>
+          <t>-16,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-49,82%</t>
+          <t>-35,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-39,56%</t>
+          <t>-74,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-11,51%</t>
+          <t>-63,11%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 2,72</t>
+          <t>-4,32; 2,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,31; -0,91</t>
+          <t>-7,6; 1,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 1,13</t>
+          <t>-7,36; -1,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 3,28</t>
+          <t>-5,82; 0,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,16; 83,87</t>
+          <t>-62,04; 75,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,53; -5,06</t>
+          <t>-65,82; 19,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-76,92; 49,15</t>
+          <t>-93,77; -15,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-68,56; 147,35</t>
+          <t>-92,61; 33,13</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-16,01%</t>
+          <t>-19,48%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-35,56%</t>
+          <t>-25,55%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-74,9%</t>
+          <t>-39,23%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-63,82%</t>
+          <t>-18,44%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 2,41</t>
+          <t>-3,12; 0,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 0,84</t>
+          <t>-4,91; -0,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,42; -1,32</t>
+          <t>-3,94; -0,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,08; -0,14</t>
+          <t>-2,04; 1,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-61,96; 79,83</t>
+          <t>-42,98; 16,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-64,87; 15,95</t>
+          <t>-44,13; -1,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-93,45; -17,96</t>
+          <t>-60,09; -5,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-93,24; 17,47</t>
+          <t>-51,01; 46,13</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,25</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,5</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,15</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-19,48%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-25,55%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-39,23%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-14,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,16; 0,89</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,99; -0,09</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-3,8; -0,31</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 1,05</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-41,45; 17,17</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-45,24; -0,98</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-59,06; -6,9</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-51,83; 45,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
